--- a/code_Tom/ticket_de_caisse/recherche/liste_critere.xlsx
+++ b/code_Tom/ticket_de_caisse/recherche/liste_critere.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simagie-my.sharepoint.com/personal/tl-pierron_alliancemutualiste_fr/Documents/Documents/GitHub/Fraude/code_Tom/ticket_de_caisse/recherche/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{8CE9D1CA-C58E-4AC7-8502-FB6A5EDFCCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4919148A-7A39-49F8-BB85-85E49F7ADF38}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="8_{8CE9D1CA-C58E-4AC7-8502-FB6A5EDFCCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04DB0860-4AE2-486C-ACFA-AA0252B37920}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B1BAC8E-E050-4704-955E-0D36C4D4E911}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B1BAC8E-E050-4704-955E-0D36C4D4E911}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="172">
   <si>
     <t>Méthode IA</t>
   </si>
@@ -187,6 +187,463 @@
   </si>
   <si>
     <t>Statut</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/320971417_Image_Splicing_Detection_via_Camera_Response_Function_Analysis</t>
+  </si>
+  <si>
+    <t>Chen, C., McCloskey, S. &amp; Yu, J. (2017), Image splicing detection via camera response
+function analysis, in ‘2017 IEEE Conference on Computer Vision and Pattern Recog_x0002_nition (C</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/220163379_Blostein_D_A_survey_of_document_image_classification_problem_statement_classifier_architecture_and_performance_evaluation_International_Journal_of_Document_Analysis_and_Recognition_IJDAR_101_1-16</t>
+  </si>
+  <si>
+    <t>Chen, N. &amp; Blostein, D. (2007), ‘A survey of document image classification : problem
+statement, classifier architecture and performance evaluation’, International Journal
+of Document Analysis and Recognition (IJDAR) 10(1)</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/281818866_News_in_an_Online_World_The_Need_for_an_Automatic_Crap_Detector</t>
+  </si>
+  <si>
+    <t>Chen, Y., Conroy, N. J. &amp; Rubin, V. L. (2015), News in an online world : The need for an “automatic crap detector”, in ‘Proceedings of the Association for Information Science and Technology</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/322780847_ICDAR2017_Competition_on_Post-OCR_Text_Correction</t>
+  </si>
+  <si>
+    <t>Chiron, G., Doucet, A., Coustaty, M. &amp; Moreux, J.-P. (2017), Icdar2017 competition on
+post-ocr text correction, in ‘Document Analysis and Recognition (ICDAR), 2017 14th
+IAPR International Conference on</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/243776823_Web_Work_Information_Seeking_and_Knowledge_Work_on_the_World_Wide_Web</t>
+  </si>
+  <si>
+    <t>Choo, C. W., Detlor, B. &amp; Turnbull, D. (2000), Web Work : Information Seeking and
+Knowledge Work on the World Wide Web, Vol. 1 of Information Science and Knowledge
+Management</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1208.3665.pdf</t>
+  </si>
+  <si>
+    <t>Christlein, V., Riess, C., Jordan, J., Riess, C. &amp; Angelopoulou, E. (2012), ‘An evaluation
+of popular copy-move forgery detection approaches’, IEEE Transactions on Informa_x0002_tion Forensics and Security 7</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/221474301_Text2onto</t>
+  </si>
+  <si>
+    <t>Cimiano, P. &amp; Völker, J. (2005), ‘Text2Onto : A Framework for Ontology Learning
+and Data-Driven Change Discovery’, Natural Language Processing and Information
+Systems</t>
+  </si>
+  <si>
+    <t>https://www.jmlr.org/papers/volume12/collobert11a/collobert11a.pdf</t>
+  </si>
+  <si>
+    <t>Collobert, R., Weston, J., Bottou, L., Karlen, M., Kavukcuoglu, K. &amp; Kuksa, P. (2011),
+‘Natural Language Processing (almost) from Scratch’, Journal of Machine Learning
+Research</t>
+  </si>
+  <si>
+    <t>http://iacis.org/jcis/articles/55-3-3.pdf</t>
+  </si>
+  <si>
+    <t>Conlon, S. J., Abrahams, A. S. &amp; Simmons, L. L. (2015), ‘Terrorism information ex_x0002_traction from online reports’, Journal of Computer Information Systems</t>
+  </si>
+  <si>
+    <t>Conroy, N. J., Rubin, V. L. &amp; Chen, Y. (2015), Automatic Deception Detection : Methods
+for Finding Fake News, in ‘Proceedings of the 78th ASIST Annual Meeting : Infor_x0002_mation Science with Impact : Research in and for the Community’, number October,</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/281818865_Automatic_Deception_Detection_Methods_for_Finding_Fake_News</t>
+  </si>
+  <si>
+    <t>Conti, M., Lain, D., Lazzeretti, R., Lovisotto, G. &amp; Quattrociocchi, W. (2017), It’s always
+april fools’ day ! : On the difficulty of social network misinformation classification
+via propagation features, in ‘Information Forensics and Security (WIFS), 2017 IEEE
+Workshop on’, IEEE</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/322809521_It's_always_April_fools'_day_On_the_difficulty_of_social_network_misinformation_classification_via_propagation_features</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/3916876_DMOS_a_generic_document_recognition_method_application_to_an_automatic_generator_of_musical_scores_mathematical_formulae_and_table_structures_recognition_systems</t>
+  </si>
+  <si>
+    <t>Couäsnon, B. (2001), Dmos : a generic document recognition method, application to
+an automatic generator of musical scores, mathematical formulae and table structures
+recognition systems, in ‘Proceedings of Sixth International Conference on Document
+Analysis and Recognition</t>
+  </si>
+  <si>
+    <t>http://papersim.com/wp-content/uploads/Ref.pdf</t>
+  </si>
+  <si>
+    <t>Cox, I., Miller, M., Bloom, J., Fridrich, J. &amp; Kalker, T. (2008), Digital Watermarking
+and Steganography, 2 edn, Morgan Kaufmann Publishers Inc., San Francisco, CA, USA.</t>
+  </si>
+  <si>
+    <t>https://projet.liris.cnrs.fr/imagine/pub/proceedings/ICIP-2014/Papers/1569902439.pdf</t>
+  </si>
+  <si>
+    <t>Cozzolino, D., Gragnaniello, D. &amp; Verdoliva, L. (2014), Image forgery detection through
+residual-based local descriptors and block-matching, in ‘International Conference on
+Image Processing (ICIP)’, IEEE</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Luisa-Verdoliva/publication/279916389_Efficient_Dense-Field_Copy-Move_Forgery_Detection/links/559e0f8808aeb45d1715e974/Efficient-Dense-Field-Copy-Move-Forgery-Detection.pdf</t>
+  </si>
+  <si>
+    <t>Cozzolino, D., Poggi, G. &amp; Verdoliva, L. (2015), ‘Efficient dense-field copy–move forgery
+detection’, IEEE Transactions on Information Forensics and Security</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/333064282_Noiseprint_A_CNN-Based_Camera_Model_Fingerprint</t>
+  </si>
+  <si>
+    <t>Cozzolino, D. &amp; Verdoliva, L. (2018b), ‘Noiseprint : a cnn-based camera model finger_x0002_print’, submitted</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/322780068_Local_Binary_Patterns_for_Document_Forgery_Detection</t>
+  </si>
+  <si>
+    <t>Cruz, F., Sidere, N., Coustaty, M., D’Andecy, V. P. &amp; Ogier, J.-M. (2017), ‘Local Binary
+Patterns for Document Forgery Detection’, 2017 14th IAPR International Conference
+on Document Analysis and Recognition (ICDAR)</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/200044237_GATE_A_Framework_and_Graphical_Development_Environment_for_Robust_NLP_Tools_and_Applications</t>
+  </si>
+  <si>
+    <t>Cunningham, H., Maynard, D., Bontcheva, K. &amp; Tablan, V. (2002), GATE : A framework
+and graphical development environment for robust NLP tools and applications., in
+‘Proceedings of the 40th Anniversary Meeting of the Association for Computational
+Linguistics (ACL’02)’</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/269031843_Multi-word_expressions_in_textual_inference</t>
+  </si>
+  <si>
+    <t>de Marneffe, M.-C., Padó, S. &amp; Manning, C. D. (2009), Multi-word expressions in textual
+inference : Much ado about nothing ?, in ‘Proceedings of the 2009 Workshop on Applied
+Textual Inference’, Association for Computational Linguistics</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/306127597_Analysis_of_Visible_and_Invisible_Image_Watermarking_-_A_Review</t>
+  </si>
+  <si>
+    <t>Dhiman, S. &amp; Singh, O. (2016), ‘Analysis of Visible and Invisible Image Watermarking
+– A Review’, International Journal of Computer Applications</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/241401706_The_Effective_Use_of_Benford's_Law_to_Assist_in_Detecting_Fraud_in_Accounting_Data</t>
+  </si>
+  <si>
+    <t>Durtschi, C., Hillison, W. &amp; Pacini, C. (2004), ‘The effective use of benford’s law to assist
+in detecting fraud in accounting data’, Journal of forensic accounting</t>
+  </si>
+  <si>
+    <t>https://www.cs.waikato.ac.nz/ml/weka/Witten_et_al_2016_appendix.pdf</t>
+  </si>
+  <si>
+    <t>Eibe, F., Hall, M. &amp; Witten, I. (2016), ‘The weka workbench. online appendix for" data
+mining : Practical machine learning tools and techniques’, Morgan Kaufmann</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/294575832_What_You_See_is_What_You_Get_Automatic_Image_Verification_for_Online_News_Content</t>
+  </si>
+  <si>
+    <t>Elkasrawi, S., Dengel, A., Abdelsamad, A. &amp; Bukhari, S. S. (2016), What you see is what
+you get ? automatic image verification for online news content, in ‘Document Analysis
+Systems (DAS), 2016 12th IAPR Workshop on’, IEEE</t>
+  </si>
+  <si>
+    <t>https://citeseerx.ist.psu.edu/document?repid=rep1&amp;type=pdf&amp;doi=6dc34bae7fb2e12499ebdff2902ccde612dbb0f1</t>
+  </si>
+  <si>
+    <t>Etzioni, O., Cafarella, M., Downey, D., Kok, S., Popescu, A.-M., Shaked, T., Soderland,
+S., Weld, D. S. &amp; Yates, A. (2004), Web-scale information extraction in KnowItAll, in
+‘Proceedings of the 13th International Conference on World Wide Web’, WWW ’04,</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/232628269_Image_Splicing_Detection_Using_Camera_Characteristic_Inconsistency</t>
+  </si>
+  <si>
+    <t>Fang, Z., Wang, S. &amp; Zhang, X. (2009), Image splicing detection using camera cha_x0002_racteristic inconsistency, in ‘Proceedings of International Conference on Multimedia
+Information Networking and Security</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/224379976_Exposing_digital_forgeries_from_JPEG_ghosts</t>
+  </si>
+  <si>
+    <t>Farid, H. (2009), ‘Exposing digital forgeries from jpeg ghosts’, IEEE Transactions on
+Information Forensics and Security</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/233844582_Syntactic_Stylometry_for_Deception_Detection</t>
+  </si>
+  <si>
+    <t>Feng, S., Banerjee, R. &amp; Choi, Y. (2012), Syntactic stylometry for deception detection, in
+‘Proceedings of the 50th Annual Meeting of the Association for Computational Linguis_x0002_tics : Short Papers-Volume 2’, Association for Computational Linguistics,</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/338095608_Recherche_d'entites_nommees_complexes_sur_le_Web_-_propositions_pour_l'extraction_et_pour_le_calcul_de_similarite</t>
+  </si>
+  <si>
+    <t>Fotsoh, A. (2018), Recherche d’entités nommées complexes sur le Web - propositions
+pour l’extraction et pour le calcul de similarité, PhD thesis, Université de Pau et des
+Pays de l’AdourQ</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/254058999_Rich_Models_for_Steganalysis_of_Digital_Images</t>
+  </si>
+  <si>
+    <t>Fridrich, J. &amp; Kodovsky, J. (2012), ‘Rich models for steganalysis of digital images’, IEEE
+Transactions on Information Forensics and Securit</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/220343395_Bayesian_Network_Classifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friedman, N., Geiger, D. &amp; Goldszmidt, M. (1997), ‘Bayesian network classifiers’, Machine learning </t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bioinformatics/article/21/18/3658/202307</t>
+  </si>
+  <si>
+    <t>Gaudan, S., Kirsch, H. &amp; Rebholz-Schuhmann, D. (2005), ‘Resolving abbreviations to
+their senses in medline’, Bioinformatics</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/243457911_Fact_Checking_and_Analyzing_the_Web</t>
+  </si>
+  <si>
+    <t>Goasdoué, F., Karanasos, K., Katsis, Y., Leblay, J., Manolescu, I. &amp; Zampetakis, S.
+(2013), Fact checking and analyzing the web, in ‘Proceedings of the 2013 international
+conference on Management of data - SIGMOD</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/252979701_A_Survey_of_Ontology_Learning_Approaches</t>
+  </si>
+  <si>
+    <t>Hazman, M., R. El-Beltagy, S. &amp; Rafea, A. (2011), ‘A Survey of Ontology Learning
+Approaches’, International Journal of Computer Applications 2</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/311609041_Deep_Residual_Learning_for_Image_Recognition</t>
+  </si>
+  <si>
+    <t>He, K., Zhang, X., Ren, S. &amp; Sun, J. (2016), ‘Deep residual learning for image recognition</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S1051200417301938</t>
+  </si>
+  <si>
+    <t>Korus, P. (2017), ‘Digital image integrity – a survey of protection and verification tech_x0002_niques’, Digital Signal Processing : A Review Journal</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/26398969_Techniques_d'abreviation_dans_les_webchats_francophones</t>
+  </si>
+  <si>
+    <t>Krautgartner, K. (2003), ‘Techniques d’abréviation dans les webchats francophones’, Lin_x0002_guistik Online 15(3). Voir page</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/224761226_Printing_Technique_Classification_for_Document_Counterfeit_Detection</t>
+  </si>
+  <si>
+    <t>Lampert, C. H., Mei, L. &amp; Breuel, T. M. (2006), Printing technique classification for
+document counterfeit detection, in ‘Computational Intelligence and Security, 2006 In_x0002_ternational Conference on</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/305334469_Neural_Architectures_for_Named_Entity_Recognition</t>
+  </si>
+  <si>
+    <t>Lample, G., Ballesteros, M., Subramanian, S., Kawakami, K. &amp; Dyer, C. (2016), Neural architectures for named entity recognition, in ‘Proceedings of North American Chapter of the Association for Computational Linguistics (NAACL)’. Voir page 71</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/319126534_Owlready_Ontology-oriented_programming_in_Python_with_automatic_classification_and_high_level_constructs_for_biomedical_ontologies</t>
+  </si>
+  <si>
+    <t>Lamy, J.-B. (2017), ‘Owlready : Ontology-oriented programming in Python with au_x0002_tomatic classification and high level constructs for biomedical ontologies’, Artificial</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/220845015_Unsynchronized_4D_Barcodes</t>
+  </si>
+  <si>
+    <t>Langlotz, T. &amp; Bimber, O. (2007), Unsynchronized 4d barcodes, in ‘International Sym_x0002_posium on Visual Computing’, Springer, pp. 363–374. Voir page 27.</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/2457778_Acrophile_An_Automated_Acronym_Extractor_and_Server</t>
+  </si>
+  <si>
+    <t>Larkey, L. S., Ogilvie, P., Price, M. A. &amp; Tamilio, B. (2000), Acrophile : An automated
+acronym extractor and server, in ‘Proceedings of the ACM Fifth International Confe_x0002_rence on Digital Libraries, DL’00, Dallas TX</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/220307465_Robust_image_hash_in_Radon_transform_domain_for_authentication</t>
+  </si>
+  <si>
+    <t>Lei, Y., Wang, Y. &amp; Huang, J. (2011), ‘Robust image hash in radon transform domain
+for authentication’, Signal Processing : Image Communication 26(6), 280 – 288. Voir
+page 27.</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/280582261_Multilingual_Event_Extraction_for_Epidemic_Detection</t>
+  </si>
+  <si>
+    <t>Lejeune, G., Brixtel, R., Doucet, A. &amp; Lucas, N. (2015), ‘Multilingual event extraction
+for epidemic detection’, Artificial Intelligence in Medicine 6</t>
+  </si>
+  <si>
+    <t>https://nymity.ch/sybilhunting/pdf/Levenshtein1966a.pdf</t>
+  </si>
+  <si>
+    <t>Levenshtein, V. I. (1966), Binary codes capable of correcting deletions, insertions, and
+reversals, in ‘Soviet physics doklady’, Vol. 10, pp. 707–710. Voir page 107.</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/262282941_Joint_inference_of_named_entity_recognition_and_normalization_for_tweets</t>
+  </si>
+  <si>
+    <t>Liu, X., Zhou, M., Wei, F., Fu, Z. &amp; Zhou, X. (2012), Joint inference of named entity recognition and normalization for tweets, in ‘Proceedings of the 50th Annual Meeting of the Association for Computational Linguistics : Long Papers-Volume 1’, Association for Computational Linguistics</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/200038910_Distinctive_Image_Features_from_Scale-Invariant_Keypoints</t>
+  </si>
+  <si>
+    <t>Lowe, D. G. (2004), ‘Distinctive image features from scale invariant keypoints’, Interna_x0002_tional Journal of Computer Vision</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/301404435_Point_Process_Modelling_of_Rumour_Dynamics_in_Social_Media</t>
+  </si>
+  <si>
+    <t>Lukasik, M., Cohn, T. &amp; Bontcheva, K. (2015), Point process modelling of rumour dy_x0002_namics in social media, in ‘Proceedings of the 53rd Annual Meeting of the Association
+for Computational Linguistics and the 7th International Joint Conference on Natural
+Language Processing (Volume 2 : Short Papers)’</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/280929880_Detect_Rumors_Using_Time_Series_of_Social_Context_Information_on_Microblogging_Websites</t>
+  </si>
+  <si>
+    <t>Ma, J., Gao, W., Wei, Z., Lu, Y. &amp; Wong, K.-F. (2015), Detect rumors using time series
+of social context information on microblogging websites, in ‘Proceedings of the 24th
+ACM International on Conference on Information and Knowledge Management’, ACM</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/275067796_Semi-structured_Documents_Mining_A_Review_and_Comparison</t>
+  </si>
+  <si>
+    <t>Madani, A., Boussaid, O. &amp; Zegour, D. E. (2013), ‘Semi-structured documents mining : A
+review and comparison’, Procedia Computer Science 22, 330 – 339. 17th International
+Conference in Knowledge Based and Intelligent Information and Engineering Systems
+- KES2013</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/323419279_Synergy_of_foreground-background_images_for_feature_extraction_Offline_signature_verification_usingFisher_vector_with_fused_KAZE_features</t>
+  </si>
+  <si>
+    <t>Okawa, M. (2018), Offline Signature Verification with VLAD Using Fused KAZE Features
+from Foreground and Background Signature Images, in ‘Proceedings of the Internatio_x0002_nal Conference on Document Analysis and Recognition</t>
+  </si>
+  <si>
+    <t>https://corse.dreets.gouv.fr/sites/corse.dreets.gouv.fr/IMG/pdf/guide_detection_fraude.pdf</t>
+  </si>
+  <si>
+    <t>OLAF (2014), ‘Détection de faux documents dans le cadre des actions structurelles, guide
+pratique à l’intention des autorités de gestion’.</t>
+  </si>
+  <si>
+    <t>https://theses.hal.science/tel-01687029</t>
+  </si>
+  <si>
+    <t>Paumier, S. (2003), De la reconnaissance des formes linguistiques à l’analyse syntaxique,
+PhD thesis, Université Marne-la-Vallée</t>
+  </si>
+  <si>
+    <t>https://www.hindawi.com/journals/isrn/2013/496701/</t>
+  </si>
+  <si>
+    <t>Piva, A. (2013), ‘An Overview on Image Forensics’, ISRN Signal Processing 2013(2), 1–
+22. Voir pages 24 et 28.</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/312560947_A_deep_learning_approach_to_detection_of_splicing_and_copy-move_forgeries_in_images</t>
+  </si>
+  <si>
+    <t>Rao, Y. &amp; Ni, J. (2016), A deep learning approach to detection of splicing and copy-move
+forgeries in images, in ‘2016 IEEE International Workshop on Information Forensics
+and Security (WIFS)</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/281818851_Deception_Detection_for_News_Three_Types_of_Fakes</t>
+  </si>
+  <si>
+    <t>Rubin, V. L., Chen, Y. &amp; Conroy, N. J. (2015), Deception Detection for News : Three
+Types of Fake News, in ‘Proceedings of the Association for Information Science and
+Technology’</t>
+  </si>
+  <si>
+    <t>Ruck, D. W., Rogers, S. K., Kabrisky, M., Oxley, M. E. &amp; Suter, B. W. (1990), ‘The
+multilayer perceptron as an approximation to a bayes optimal discriminant function’,
+IEEE Transactions on Neural Networks</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/5569054_The_multilayer_perceptron_as_an_approximation_to_a_Bayes_optimal_discriminant_function</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/269110429_Detection_et_correction_automatique_d'entites_nommees_dans_des_corpus_OCRises</t>
+  </si>
+  <si>
+    <t>Sagot, B. &amp; Gábor, K. (2014), Détection et correction automatique d’entités nommées
+dans des corpus OCRisés, in ‘Traitement Automatique du Langage Naturel 2014’</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/230717607_Vers_un_systeme_de_capitalisation_des_connaissances_extraction_d'evenements_par_combinaison_de_plusieurs_approches</t>
+  </si>
+  <si>
+    <t>Serrano, L. (2014), Vers une capitalisation des connaissances orientée utilisateur : ex_x0002_traction et structuration automatiques de l’information issue de sources ouvertes, PhD
+thesis, Université de Caen</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/274576108_Detecting_documents_forged_by_printing_and_copying</t>
+  </si>
+  <si>
+    <t>Shang, S., Memon, N. &amp; Kong, X. (2014), ‘Detecting documents forged by printing and
+copying’, EURASIP Journal on Advances in Signal Processing 2014(1)</t>
+  </si>
+  <si>
+    <t>Shu, K., Sliva, A., Wang, S., Tang, J. &amp; Liu, H. (2017), ‘Fake news detection on social
+media : A data mining perspective’, ACM SIGKDD Explorations Newsletter 1</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/318981549_Fake_News_Detection_on_Social_Media_A_Data_Mining_Perspective</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/320829587_A_dataset_for_forgery_detection_and_spotting_in_document_images</t>
+  </si>
+  <si>
+    <t>Sidère, N., Cruz, F., Coustaty, M. &amp; Ogier, J. M. (2017), ‘A dataset for forgery detection
+and spotting in document images’, Proceedings - 2017 7th International Conference on
+Emerging Security Technologies, EST 2017</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/241250107_The_development_of_an_image_analysis_system_that_can_detect_fraudulent_alterations_made_to_printed_images</t>
+  </si>
+  <si>
+    <t>Tchan, J. (2004), The development of an image analysis system that can detect fraudulent
+alterations made to printed images, in R. L. van Renesse, ed., ‘Electronic Imaging
+2004’, International Society for Optics and Photonics</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/297777160_Generation_and_analysis_of_graphical_codes_using_textured_patterns_for_printed_document_authentication</t>
+  </si>
+  <si>
+    <t>Tkachenko, I. (2015), Generation and analysis of graphical codes using textured patterns
+for printed document authentication, Theses, Université de Montpellier. Voir page 27</t>
   </si>
 </sst>
 </file>
@@ -254,7 +711,11 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -276,6 +737,18 @@
     <tableColumn id="3" xr3:uid="{E2DD4DFD-7CE1-490D-9457-3406023C8090}" name="Indicateur" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C105DDC2-006D-49CA-8B82-FB62A6CB55FB}" name="Tableau2" displayName="Tableau2" ref="A17:C87" totalsRowShown="0">
+  <autoFilter ref="A17:C87" xr:uid="{C105DDC2-006D-49CA-8B82-FB62A6CB55FB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B0E96F79-7EA5-4E1F-A7FE-94D9BA3FA6A1}" name="Auteur" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{254C0FA4-B86F-4CF3-A4F4-EF6204922CE2}" name="Lien" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="3" xr3:uid="{09B0D9A7-BCFA-457F-8BDF-5EEBAF9756AF}" name="Statut"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -576,17 +1049,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2699D2CD-AF06-4CA0-92E0-470661F77D32}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="90.21875" customWidth="1"/>
     <col min="2" max="2" width="130.21875" customWidth="1"/>
-    <col min="3" max="3" width="58.109375" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -779,6 +1252,699 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" t="s">
         <v>35</v>
       </c>
     </row>
@@ -791,11 +1957,75 @@
     <hyperlink ref="B22" r:id="rId5" xr:uid="{C33D3E72-BEE1-4186-9D85-10A762FCE2C6}"/>
     <hyperlink ref="B23" r:id="rId6" xr:uid="{79E51309-789C-4C95-B95C-77E1C8F16AE2}"/>
     <hyperlink ref="B24" r:id="rId7" xr:uid="{1944C3B7-2C22-43A8-B617-79336BE7E27F}"/>
+    <hyperlink ref="B25" r:id="rId8" xr:uid="{1FF3E6F2-B708-4C54-B8BF-067F405DFB3C}"/>
+    <hyperlink ref="B26" r:id="rId9" xr:uid="{F8545D2D-C2F6-429D-B721-7C34A7CEB153}"/>
+    <hyperlink ref="B27" r:id="rId10" xr:uid="{036EB420-3B2C-4240-A7EE-C51AE2DF218C}"/>
+    <hyperlink ref="B28" r:id="rId11" xr:uid="{2887065B-47A7-4C14-85CD-3B2471A5EA30}"/>
+    <hyperlink ref="B29" r:id="rId12" xr:uid="{06AEF74A-A4F8-4B60-BD9E-AC9ECA7B2E4F}"/>
+    <hyperlink ref="B30" r:id="rId13" xr:uid="{AAABD93F-F087-4B59-B5D6-DB39EF442887}"/>
+    <hyperlink ref="B31" r:id="rId14" xr:uid="{51C3988B-0EF8-478D-8D9C-BDF741C9E6D8}"/>
+    <hyperlink ref="B32" r:id="rId15" xr:uid="{46D32B80-8957-446D-8FA0-E1300B32AC71}"/>
+    <hyperlink ref="B33" r:id="rId16" xr:uid="{DFAFA758-94A9-4F31-893D-4E77DC4AE662}"/>
+    <hyperlink ref="B34" r:id="rId17" xr:uid="{D6D3CD4F-53FF-4751-A975-99C4A47D6849}"/>
+    <hyperlink ref="B35" r:id="rId18" xr:uid="{FF24C3E1-C0A7-427A-A6AA-16622DAA8F23}"/>
+    <hyperlink ref="B36" r:id="rId19" xr:uid="{6F83E1DA-BDD2-439B-86DB-44C84278814A}"/>
+    <hyperlink ref="B37" r:id="rId20" xr:uid="{0471EE3B-9ED5-4559-8041-BED95E6D32F9}"/>
+    <hyperlink ref="B38" r:id="rId21" xr:uid="{E38975B0-1CB3-4E8C-9670-243E81D67A35}"/>
+    <hyperlink ref="B39" r:id="rId22" xr:uid="{2CCA803B-442B-4880-A9B0-D6683B4DAECF}"/>
+    <hyperlink ref="B40" r:id="rId23" xr:uid="{BF759338-248A-4048-99FB-3FED9B3A74FB}"/>
+    <hyperlink ref="B41" r:id="rId24" xr:uid="{C649E4F5-BEDC-435E-8951-86B101B38C73}"/>
+    <hyperlink ref="B42" r:id="rId25" xr:uid="{341C6DA7-BD9F-447B-B9CC-67F5E1BFAF23}"/>
+    <hyperlink ref="B43" r:id="rId26" xr:uid="{254D11B3-238A-400B-9087-5655B211F78E}"/>
+    <hyperlink ref="B44" r:id="rId27" xr:uid="{49A91541-9519-4312-A3D9-A8E9A2F2003C}"/>
+    <hyperlink ref="B45" r:id="rId28" xr:uid="{5A5AD229-F371-412A-A3F7-B3642CF26AEF}"/>
+    <hyperlink ref="B46" r:id="rId29" xr:uid="{804F72B5-8C41-4E57-8830-4E37076F5398}"/>
+    <hyperlink ref="B47" r:id="rId30" xr:uid="{C1C3C393-3008-45E1-A6B0-8B993A66E80D}"/>
+    <hyperlink ref="B48" r:id="rId31" xr:uid="{F141A734-47BC-4292-826A-17DEFB877A78}"/>
+    <hyperlink ref="B49" r:id="rId32" xr:uid="{C7BC77ED-8404-4879-AE67-EC91C91DA825}"/>
+    <hyperlink ref="B50" r:id="rId33" xr:uid="{A8DB10E6-D104-4B9C-91F6-0662057908ED}"/>
+    <hyperlink ref="B51" r:id="rId34" xr:uid="{2E609402-83E0-460D-BE40-A23A7247C4AD}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{FD94A1E5-CFD3-4519-B871-AB1C30802E5A}"/>
+    <hyperlink ref="B53" r:id="rId36" xr:uid="{8104AC25-7744-47CC-9469-EE4FC097A6BF}"/>
+    <hyperlink ref="B54" r:id="rId37" xr:uid="{0EAF28C7-3874-4A73-8B39-F736730F634B}"/>
+    <hyperlink ref="B55" r:id="rId38" xr:uid="{44286FBC-01E1-4BFC-9B9E-D133BA3A036C}"/>
+    <hyperlink ref="B56" r:id="rId39" xr:uid="{CCA2ED0E-9600-448B-AC72-AAE522ADBD2F}"/>
+    <hyperlink ref="B57" r:id="rId40" xr:uid="{4F95299B-5561-4DC9-885A-62AE2679DB92}"/>
+    <hyperlink ref="B58" r:id="rId41" xr:uid="{CC47F6B1-7388-446A-A560-590D9E8CA10D}"/>
+    <hyperlink ref="B59" r:id="rId42" xr:uid="{70897E5E-F35E-4731-A8AB-180BFE7975BC}"/>
+    <hyperlink ref="B60" r:id="rId43" xr:uid="{0A7841CE-3F6B-42B9-8066-3B897FB29B44}"/>
+    <hyperlink ref="B61" r:id="rId44" xr:uid="{D4894BF2-E2D5-4845-9EE5-E4D3AD509BC6}"/>
+    <hyperlink ref="B62" r:id="rId45" xr:uid="{DF354EEC-7E71-4FE8-9A60-4A2B3A7F02B0}"/>
+    <hyperlink ref="B63" r:id="rId46" xr:uid="{FCFA7D7A-316B-421E-A9C8-0E38A4CF7302}"/>
+    <hyperlink ref="B64" r:id="rId47" xr:uid="{D6E32297-8F71-4535-A7A2-0D6D1A07F3CD}"/>
+    <hyperlink ref="B66" r:id="rId48" xr:uid="{FF817717-6DF3-46C4-BE2B-D3CCD1412F3C}"/>
+    <hyperlink ref="B65" r:id="rId49" xr:uid="{2D7BB93F-8957-4D60-81D0-B545E95EA688}"/>
+    <hyperlink ref="B67" r:id="rId50" xr:uid="{BB23A0E6-7B9E-498A-979F-7CA120FAC261}"/>
+    <hyperlink ref="B68" r:id="rId51" xr:uid="{254E3CDC-EC7A-4A9D-BC47-E0330F498E87}"/>
+    <hyperlink ref="B69" r:id="rId52" xr:uid="{EA946182-620E-4400-855D-34516123AB8D}"/>
+    <hyperlink ref="B70" r:id="rId53" xr:uid="{12426AE0-CE72-46C3-9CEA-34E9BD023E6F}"/>
+    <hyperlink ref="B71" r:id="rId54" xr:uid="{17CEAE9E-EE0A-480D-86CF-74F5F8E69F17}"/>
+    <hyperlink ref="B72" r:id="rId55" xr:uid="{5344BA26-A53F-4DB2-943E-4D2112EF6F32}"/>
+    <hyperlink ref="B73" r:id="rId56" xr:uid="{63A76667-8806-4862-B7CA-D88AD86AD87A}"/>
+    <hyperlink ref="B74" r:id="rId57" xr:uid="{D0B5DF94-4856-4A3C-B68A-FF5F2569E9C2}"/>
+    <hyperlink ref="B75" r:id="rId58" xr:uid="{C082E2D3-FFC2-4220-BD75-483347F28942}"/>
+    <hyperlink ref="B76" r:id="rId59" xr:uid="{11F7EC59-6A69-4F0C-8A31-6522682B9EDE}"/>
+    <hyperlink ref="B77" r:id="rId60" xr:uid="{0410B5AC-DBAA-4F78-BD54-761828E81D51}"/>
+    <hyperlink ref="B78" r:id="rId61" xr:uid="{393732CF-D0A7-4C7E-9D50-2CF3C4961835}"/>
+    <hyperlink ref="B79" r:id="rId62" xr:uid="{31A2DF87-98F0-4D46-9EB3-13D4957CA903}"/>
+    <hyperlink ref="B80" r:id="rId63" xr:uid="{62B274B3-3C8A-4B54-B6CE-9E02ACE1BF84}"/>
+    <hyperlink ref="B81" r:id="rId64" xr:uid="{FBE2CC0E-7782-4145-9D19-C20061F22F18}"/>
+    <hyperlink ref="B82" r:id="rId65" xr:uid="{8DEF6454-2166-4F24-A61A-D818DBEE0A55}"/>
+    <hyperlink ref="B83" r:id="rId66" xr:uid="{52CE76AC-3969-4D99-AD87-670907D28F7C}"/>
+    <hyperlink ref="B84" r:id="rId67" xr:uid="{153AD7AA-9070-4246-8D95-B17FDF39CA3E}"/>
+    <hyperlink ref="B85" r:id="rId68" xr:uid="{56D9CD2D-8D1D-495E-8616-0D24C79694DA}"/>
+    <hyperlink ref="B86" r:id="rId69" xr:uid="{94568A9D-77C9-4A58-8A95-D39BC975FC5A}"/>
+    <hyperlink ref="B87" r:id="rId70" xr:uid="{4E18CC40-C23A-4A0D-989F-D221CAAB2941}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId8"/>
-  <tableParts count="1">
-    <tablePart r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId71"/>
+  <tableParts count="2">
+    <tablePart r:id="rId72"/>
+    <tablePart r:id="rId73"/>
   </tableParts>
 </worksheet>
 </file>